--- a/contact_book.xlsx
+++ b/contact_book.xlsx
@@ -8,34 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacks\OneDrive\GitHub\python_projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB6A0C3-FB8B-4DF1-B11D-3E9D3749BFE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A1445C-C182-4B2E-B5AD-DE0926EA6552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" xr2:uid="{5F305C11-C81F-45CD-9B87-73FEBEF176DC}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contact_book" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>first_name</t>
   </si>
@@ -61,10 +46,13 @@
     <t>birth_day</t>
   </si>
   <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>user_email</t>
+    <t>234567</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
 </sst>
 </file>
@@ -415,16 +403,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43271E6F-64CF-4C25-B645-747E71F29CC5}">
-  <dimension ref="A1:J1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,11 +440,37 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>9</v>
+      </c>
+      <c r="H2">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="I1" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>